--- a/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10617.xlsx
+++ b/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A229C07-2EA5-49A9-9D7F-716534BDBD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C43E03-968C-4489-9D3E-E4B4D9C169E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1026,6 +1026,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,12 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1392,30 +1392,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
@@ -1434,11 +1434,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1" t="s">
         <v>108</v>
       </c>
@@ -1459,19 +1459,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1548,10 +1548,14 @@
       <c r="J8" s="3">
         <v>45457</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
+      <c r="K8" s="3">
+        <v>45461</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>121</v>
@@ -1565,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C47" si="0">ROW()-2</f>
+        <f t="shared" ref="C9:C16" si="0">ROW()-2</f>
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1596,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>121</v>
@@ -1634,9 +1638,15 @@
       <c r="J10" s="3">
         <v>45457</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="3">
+        <v>45461</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>119</v>
       </c>
@@ -1673,11 +1683,17 @@
       <c r="J11" s="3">
         <v>45457</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="3">
+        <v>45461</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O11" s="5">
         <v>45457</v>
@@ -1709,10 +1725,18 @@
       <c r="I12" s="3">
         <v>45462</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="J12" s="3">
+        <v>45461</v>
+      </c>
+      <c r="K12" s="3">
+        <v>45463</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>120</v>
       </c>
@@ -1746,10 +1770,14 @@
       <c r="J13" s="3">
         <v>45457</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="3">
+        <v>45463</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>117</v>
@@ -1791,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>118</v>
@@ -1823,10 +1851,18 @@
       <c r="I15" s="3">
         <v>45462</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="J15" s="3">
+        <v>45461</v>
+      </c>
+      <c r="K15" s="3">
+        <v>45461</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>120</v>
       </c>
@@ -1867,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>116</v>
@@ -1878,7 +1914,7 @@
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:C47" si="1">ROW()-2</f>
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1920,7 +1956,7 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1962,7 +1998,7 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2004,7 +2040,7 @@
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2046,7 +2082,7 @@
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2088,7 +2124,7 @@
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2130,7 +2166,7 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2172,7 +2208,7 @@
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2214,7 +2250,7 @@
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2256,7 +2292,7 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2298,7 +2334,7 @@
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2340,7 +2376,7 @@
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2382,7 +2418,7 @@
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2414,7 +2450,7 @@
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2446,7 +2482,7 @@
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2478,7 +2514,7 @@
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2510,7 +2546,7 @@
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2542,7 +2578,7 @@
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2580,7 +2616,7 @@
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2612,7 +2648,7 @@
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2650,7 +2686,7 @@
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2678,7 +2714,7 @@
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2706,7 +2742,7 @@
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2734,7 +2770,7 @@
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2762,7 +2798,7 @@
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2790,7 +2826,7 @@
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2818,7 +2854,7 @@
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2846,7 +2882,7 @@
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2874,7 +2910,7 @@
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2902,7 +2938,7 @@
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2930,7 +2966,7 @@
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2947,7 +2983,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="15"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2957,7 +2993,7 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="J48" s="16"/>
+      <c r="J48" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="C7:O47" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
@@ -2977,18 +3013,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3163,6 +3199,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3175,14 +3219,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10617.xlsx
+++ b/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C43E03-968C-4489-9D3E-E4B4D9C169E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B89F9-37E3-40A7-B03F-EE2082F46FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
-        <f t="shared" ref="C9:C47" si="1">ROW()-2</f>
+        <f t="shared" ref="C17:C47" si="1">ROW()-2</f>
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3022,12 +3022,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3198,6 +3192,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -3207,23 +3207,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3240,4 +3223,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>